--- a/MPPiU/Сравнение конкурентов.xlsx
+++ b/MPPiU/Сравнение конкурентов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\semester_5\MPPiU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702E129-284C-4843-AE44-D329DFB34D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26DF043-0226-4C8E-A808-F1072A14D191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Признак</t>
   </si>
@@ -119,12 +119,18 @@
   <si>
     <t>Вес</t>
   </si>
+  <si>
+    <t>Суммарные рейтинги</t>
+  </si>
+  <si>
+    <t>Средневзвешенные рейтинги</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +138,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,19 +169,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -764,7 +788,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$26</c:f>
+              <c:f>Sheet1!$A$22:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -790,7 +814,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$26</c:f>
+              <c:f>Sheet1!$D$22:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -841,7 +865,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$A$26</c:f>
+              <c:f>Sheet1!$A$22:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -867,7 +891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$26</c:f>
+              <c:f>Sheet1!$E$22:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -918,7 +942,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$26</c:f>
+              <c:f>Sheet1!$C$22:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1150,6 +1174,694 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Суммарные</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> рейтинги</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7877538035018345E-2"/>
+          <c:y val="0.11229314420803782"/>
+          <c:w val="0.90624944609196589"/>
+          <c:h val="0.81915405521118367"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Фитнес-трекер</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>NIKE TRAINING CLUB</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>ADIDAS TRAINING</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D7C-40ED-96EA-2D427733ED81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="338996112"/>
+        <c:axId val="684528320"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="338996112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684528320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="684528320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338996112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Средневзвешенный</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> рейтинг</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Фитнес-трекер</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>NIKE TRAINING CLUB</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>ADIDAS TRAINING</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3850-447B-B9A1-1BF8AD98F0F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="336773904"/>
+        <c:axId val="698747920"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="336773904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="698747920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="698747920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336773904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1230,6 +1942,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
@@ -1770,6 +2562,994 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -2309,6 +4089,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1889760</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00338294-1591-0CB2-C296-557DEE8E9141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1897380</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2925B1F-15EB-1966-E70C-C50D7D08EA93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2580,22 +4432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P103" sqref="P103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +4461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2623,7 +4475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2636,22 +4488,22 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2665,7 +4517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,7 +4531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,22 +4544,22 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2721,7 +4573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2735,13 +4587,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2769,7 +4621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2783,7 +4635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2797,7 +4649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2811,7 +4663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -2825,7 +4677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -2839,7 +4691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2853,161 +4705,189 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <f>SUM(B12:B17)</f>
+        <v>54</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:D18" si="0">SUM(C12:C17)</f>
+        <v>44</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B18/6</f>
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:D19" si="1">C18/6</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>0.3</v>
       </c>
-      <c r="C21" s="1">
-        <f>B12*$B21</f>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:E27" si="2">B12*$B22</f>
         <v>2.4</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" ref="D21:E21" si="0">C12*$B21</f>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ref="C22:E26" si="1">B13*$B22</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>0.1</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>0.1</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="1"/>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>0.2</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
